--- a/NformTester/NformTester/Keywordscripts/600.10.30.30_DevicesSupportedbyNformG2Product.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.30_DevicesSupportedbyNformG2Product.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12780" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12782" uniqueCount="995">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4261,6 +4261,14 @@
   </si>
   <si>
     <t>Liebert MPX/MPH - RPC1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4418,7 +4426,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4429,8 +4437,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4476,10 +4487,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -5209,14 +5225,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O975"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="28.125" customWidth="1"/>
@@ -5226,7 +5242,7 @@
     <col min="10" max="10" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>757</v>
       </c>
@@ -5901,6 +5917,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>994</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>

--- a/NformTester/NformTester/Keywordscripts/600.10.30.30_DevicesSupportedbyNformG2Product.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.30.30_DevicesSupportedbyNformG2Product.xlsx
@@ -4268,8 +4268,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -5226,7 +5225,7 @@
   <dimension ref="A1:O975"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
